--- a/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/Automobile - 2 & 3 Wheelers/Bajaj Auto Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>7,436.42</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6,610.90</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2,948.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7,041.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>8,730.10</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>7,041.48</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2,948.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6,610.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7,436.42</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>8730.1</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>2948.52</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>6553.483999999999</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>203.24</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>204.95</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>114.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>179.78</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>114.38</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>130.72</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>204.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>203.24</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>204.95</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>114.38</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>166.614</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>7,639.66</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6,815.85</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,079.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7,155.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>8,909.88</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>7,155.86</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,079.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6,815.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7,639.66</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>8909.879999999999</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>3079.24</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>6720.098</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>4,727.65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4,490.52</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,695.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4,773.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>5,993.05</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4,773.74</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,695.92</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4,490.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4,727.65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>5993.05</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1695.92</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>4336.176</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>437.21</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>411.08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>347.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>486.47</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>347.06</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>411.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>437.21</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>486.47</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>89.75</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>354.314</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>177.38</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-236.33</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>280.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-62.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-171.28</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-62.67</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>280.93</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-236.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>177.38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>280.93</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-236.33</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-2.394000000000003</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>348.24</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>342.08</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>337.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>324.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>317.18</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>324.56</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>337.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>342.08</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>348.24</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>348.24</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>317.18</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>333.866</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>63.27</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>65.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>64.32</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>63.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>63.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>61.68</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>61.68</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>63.612</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-10.23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-5.52</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>-1.97</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-2.93</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-1.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-5.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-10.23</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>-1.71</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-10.23</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>-4.472</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>592.20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>561.26</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>268.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>509.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>556.81</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>509.87</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>268.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>561.26</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>592.20</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>592.2</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>268.55</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>497.738</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,305.53</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,189.49</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>344.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,201.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,664.62</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,201.91</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>344.74</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,189.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,305.53</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1664.62</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>344.74</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1141.258</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>366.22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>532.65</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>337.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>285.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>369.18</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>285.80</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>337.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>532.65</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>366.22</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>532.65</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>285.8</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>378.346</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,671.75</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,722.14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>682.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,487.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2,033.80</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,487.71</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>682.62</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,722.14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,671.75</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2033.8</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>682.62</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1519.604</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1.02</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1.2</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,671.28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,721.23</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>681.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,485.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,032.78</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,485.06</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>681.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,721.23</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,671.28</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>2032.78</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>681.67</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1518.404</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,671.28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,721.23</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>681.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,485.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,032.78</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,485.06</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>681.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,721.23</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,671.28</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2032.78</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>681.67</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1518.404</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>409.68</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>410.94</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>153.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>346.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>476.50</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>346.86</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>153.63</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>410.94</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>409.68</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>476.5</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>153.63</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>359.522</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,261.60</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,310.29</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>528.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,138.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1,556.28</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,138.20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>528.04</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,310.29</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,261.60</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1556.28</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>528.04</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1158.882</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1,261.60</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,310.29</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>528.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,138.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1,556.28</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,138.20</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>528.04</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,310.29</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1,261.60</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>1556.28</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>528.04</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1158.882</v>
       </c>
     </row>
     <row r="23">
@@ -1313,15 +1119,6 @@
         <is>
           <t>289.37</t>
         </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>289.37</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>289.37</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>43.60</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>45.30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>53.80</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>39.30</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>18.30</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>45.30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>43.60</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>40.06</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>43.60</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>45.30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>53.80</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>39.30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>18.30</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>45.30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>43.60</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>40.06</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>43.60</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>45.30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>53.80</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>39.30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>18.30</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>45.30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>43.60</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>40.06</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>43.60</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>45.30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>53.80</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>39.30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>18.30</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>45.30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>43.60</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>40.06</v>
       </c>
     </row>
     <row r="32"/>
